--- a/biology/Médecine/Réflexe_de_Bezold-Jarisch/Réflexe_de_Bezold-Jarisch.xlsx
+++ b/biology/Médecine/Réflexe_de_Bezold-Jarisch/Réflexe_de_Bezold-Jarisch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_de_Bezold-Jarisch</t>
+          <t>Réflexe_de_Bezold-Jarisch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réflexe de Bezold-Jarisch est un ensemble de processus cardio-vasculaires et neurologiques liés à des phénomènes d'hypopnée / fréquence respiratoire anormalement diminuée, en complément d'arythmies cardiaques (bradycardie). 
 Retrouvé lors de problèmes de déshydratation, il entraîne par ailleurs une vasodilatation des vaisseaux périphériques ainsi qu'une hypotension, ce qui pourrait être considéré comme physiologiquement anormal du fait du travail des barorécepteurs artériels.
